--- a/cotacoes_retorno.xlsx
+++ b/cotacoes_retorno.xlsx
@@ -487,47 +487,47 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Al Nasar SC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Al Tadamon</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SaoPaulo_X_Internacio#ambas</t>
+          <t>AlNasarS_X_AlTadamon#2.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>08/11/2022 20:30</t>
+          <t>10/11/2022 10:25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H2" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="I2" t="n">
-        <v>54.54545454545454</v>
+        <v>53.69458128078818</v>
       </c>
       <c r="J2" t="n">
-        <v>45.45454545454546</v>
+        <v>46.30541871921182</v>
       </c>
       <c r="K2" t="n">
-        <v>3.636363636363626</v>
+        <v>0.9458128078817651</v>
       </c>
     </row>
   </sheetData>

--- a/cotacoes_retorno.xlsx
+++ b/cotacoes_retorno.xlsx
@@ -487,26 +487,26 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Al Nasar SC</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Al Tadamon</t>
+          <t>Juventus FC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AlNasarS_X_AlTadamon#2.5</t>
+          <t>HellasVer_X_JuventusF#2.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10/11/2022 10:25</t>
+          <t>10/11/2022 13:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -515,19 +515,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="I2" t="n">
-        <v>53.69458128078818</v>
+        <v>52.08845208845209</v>
       </c>
       <c r="J2" t="n">
-        <v>46.30541871921182</v>
+        <v>47.9115479115479</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9458128078817651</v>
+        <v>1.572481572481564</v>
       </c>
     </row>
   </sheetData>

--- a/cotacoes_retorno.xlsx
+++ b/cotacoes_retorno.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>

--- a/cotacoes_retorno.xlsx
+++ b/cotacoes_retorno.xlsx
@@ -487,26 +487,26 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Dalian Professional</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Juventus FC</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HellasVer_X_JuventusF#2.5</t>
+          <t>DalianPro_X_ZhejiangP#2.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10/11/2022 13:30</t>
+          <t>18/11/2022 03:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -515,19 +515,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="I2" t="n">
-        <v>52.08845208845209</v>
+        <v>59.52380952380953</v>
       </c>
       <c r="J2" t="n">
-        <v>47.9115479115479</v>
+        <v>40.47619047619047</v>
       </c>
       <c r="K2" t="n">
-        <v>1.572481572481564</v>
+        <v>1.19047619047619</v>
       </c>
     </row>
   </sheetData>

--- a/cotacoes_retorno.xlsx
+++ b/cotacoes_retorno.xlsx
@@ -487,47 +487,47 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dalian Professional</t>
+          <t>Biancoscudati Padova</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>AC Renate</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DalianPro_X_ZhejiangP#2.5</t>
+          <t>Biancoscud_X_ACRenate#ambas</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18/11/2022 03:30</t>
+          <t>27/11/2022 12:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>2.13</v>
       </c>
       <c r="I2" t="n">
-        <v>59.52380952380953</v>
+        <v>52.46305418719213</v>
       </c>
       <c r="J2" t="n">
-        <v>40.47619047619047</v>
+        <v>47.53694581280788</v>
       </c>
       <c r="K2" t="n">
-        <v>1.19047619047619</v>
+        <v>1.253694581280797</v>
       </c>
     </row>
   </sheetData>

--- a/cotacoes_retorno.xlsx
+++ b/cotacoes_retorno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,27 +436,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>home_team_x</t>
+          <t>casa_x</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>away_team_x</t>
+          <t>fora_x</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>chave_jogo</t>
+          <t>chave</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>start_date</t>
+          <t>inicio_x</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>tipo_betano</t>
+          <t>mercado</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -487,47 +487,92 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biancoscudati Padova</t>
+          <t>Xinjiang Tianshan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AC Renate</t>
+          <t>Qingdao Manatee</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Biancoscud_X_ACRenate#ambas</t>
+          <t>Xinjiang Tianshan x Qingdao Manatee</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27/11/2022 12:30</t>
+          <t>28/11/2022 04:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Ambas equipes Marcam Não</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="H2" t="n">
-        <v>2.13</v>
+        <v>2.5</v>
       </c>
       <c r="I2" t="n">
-        <v>52.46305418719213</v>
+        <v>59.24170616113744</v>
       </c>
       <c r="J2" t="n">
-        <v>47.53694581280788</v>
+        <v>40.75829383886256</v>
       </c>
       <c r="K2" t="n">
-        <v>1.253694581280797</v>
+        <v>1.895734597156405</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Xinjiang Tianshan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Qingdao Manatee</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Xinjiang Tianshan x Qingdao Manatee</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28/11/2022 04:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Ambas equipes Marcam Não</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>59.24170616113744</v>
+      </c>
+      <c r="J3" t="n">
+        <v>40.75829383886256</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.895734597156405</v>
       </c>
     </row>
   </sheetData>

--- a/cotacoes_retorno.xlsx
+++ b/cotacoes_retorno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -511,68 +511,23 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ambas equipes Marcam Não</t>
+          <t>Ambas equipes Marcam Sim</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.72</v>
+        <v>2.22</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>1.874</v>
       </c>
       <c r="I2" t="n">
-        <v>59.24170616113744</v>
+        <v>45.7743038593063</v>
       </c>
       <c r="J2" t="n">
-        <v>40.75829383886256</v>
+        <v>54.2256961406937</v>
       </c>
       <c r="K2" t="n">
-        <v>1.895734597156405</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Xinjiang Tianshan</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Qingdao Manatee</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Xinjiang Tianshan x Qingdao Manatee</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>28/11/2022 04:00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ambas equipes Marcam Não</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>59.24170616113744</v>
-      </c>
-      <c r="J3" t="n">
-        <v>40.75829383886256</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.895734597156405</v>
+        <v>1.618954567659998</v>
       </c>
     </row>
   </sheetData>

--- a/cotacoes_retorno.xlsx
+++ b/cotacoes_retorno.xlsx
@@ -487,47 +487,47 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Xinjiang Tianshan</t>
+          <t>PAO Rouf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Qingdao Manatee</t>
+          <t>Irodotos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Xinjiang Tianshan x Qingdao Manatee</t>
+          <t>PAO Rouf x Irodotos</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28/11/2022 04:00</t>
+          <t>02/12/2022 09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ambas equipes Marcam Sim</t>
+          <t>Chance Dupla 1X</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.22</v>
+        <v>1.28</v>
       </c>
       <c r="H2" t="n">
-        <v>1.874</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>45.7743038593063</v>
+        <v>79.61783439490446</v>
       </c>
       <c r="J2" t="n">
-        <v>54.2256961406937</v>
+        <v>20.38216560509554</v>
       </c>
       <c r="K2" t="n">
-        <v>1.618954567659998</v>
+        <v>1.910828025477713</v>
       </c>
     </row>
   </sheetData>

--- a/cotacoes_retorno.xlsx
+++ b/cotacoes_retorno.xlsx
@@ -487,26 +487,26 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>225</v>
+        <v>1612</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PAO Rouf</t>
+          <t>Apollon Limassol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Irodotos</t>
+          <t>AEL Limassol</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PAO Rouf x Irodotos</t>
+          <t>Apollon Limassol x AEL Limassol</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>02/12/2022 09:00</t>
+          <t>04/12/2022 13:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -515,19 +515,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="I2" t="n">
-        <v>79.61783439490446</v>
+        <v>76.64956660180435</v>
       </c>
       <c r="J2" t="n">
-        <v>20.38216560509554</v>
+        <v>23.35043339819565</v>
       </c>
       <c r="K2" t="n">
-        <v>1.910828025477713</v>
+        <v>1.177427914381752</v>
       </c>
     </row>
   </sheetData>

--- a/cotacoes_retorno.xlsx
+++ b/cotacoes_retorno.xlsx
@@ -487,47 +487,47 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1612</v>
+        <v>64</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apollon Limassol</t>
+          <t>Armed Forces</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AEL Limassol</t>
+          <t>Steve Biko</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Apollon Limassol x AEL Limassol</t>
+          <t>Armed Forces x Steve Biko</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>04/12/2022 13:00</t>
+          <t>20/02/2023 12:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Chance Dupla 1X</t>
+          <t>Chance Dupla X2</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="H2" t="n">
-        <v>4.333</v>
+        <v>3.264</v>
       </c>
       <c r="I2" t="n">
-        <v>76.64956660180435</v>
+        <v>68.22742474916387</v>
       </c>
       <c r="J2" t="n">
-        <v>23.35043339819565</v>
+        <v>31.77257525083612</v>
       </c>
       <c r="K2" t="n">
-        <v>1.177427914381752</v>
+        <v>3.705685618729092</v>
       </c>
     </row>
   </sheetData>

--- a/cotacoes_retorno.xlsx
+++ b/cotacoes_retorno.xlsx
@@ -487,26 +487,26 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>64</v>
+        <v>1524</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Armed Forces</t>
+          <t>Hemel Hempstead Town</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Steve Biko</t>
+          <t>Chippenham Town</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Armed Forces x Steve Biko</t>
+          <t>Hemel Hempstead Town x Chippenham Town</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20/02/2023 12:00</t>
+          <t>21/02/2023 15:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -515,19 +515,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.264</v>
+        <v>2.55</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22742474916387</v>
+        <v>60.71428571428571</v>
       </c>
       <c r="J2" t="n">
-        <v>31.77257525083612</v>
+        <v>39.28571428571429</v>
       </c>
       <c r="K2" t="n">
-        <v>3.705685618729092</v>
+        <v>0.1785714285714164</v>
       </c>
     </row>
   </sheetData>
